--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE619343-9EAF-4B29-BE7B-B49945254D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D911B7-F43D-478D-8541-C4D2272B6B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,97 @@
   </si>
   <si>
     <t>Device size(LxWxH/mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_01_00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用运算放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM358DR2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\LM358_ONSEMI_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\04_Operational_Amplifier.SchLib</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5252902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\104-SOIC.PcbLib</t>
+  </si>
+  <si>
+    <t>onsemi(安森美)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2mmx5.0mmx1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0℃~+70℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_01_00000002</t>
+  </si>
+  <si>
+    <t>TJM4558CDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJM4558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\TJM4558_ST_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用运算放大器-LM358DR2G-Vdd=0V~32V/Vee=±16V/Vos=7mV/GBP=1.0MHz/CMRR=70dB-2路-onsemi(安森美)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用运算放大器-TJM4558CDT-Vdd=0V~30V/Vee=±15V/Vos=1mV/GBP=5.5MHz/CMRR=90dB-2路-ST(意法半导体)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0MHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +285,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -487,15 +584,15 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -562,6 +659,106 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D911B7-F43D-478D-8541-C4D2272B6B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8935017-7812-4652-8BD5-8794774D0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,113 @@
   </si>
   <si>
     <t>1.0MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_01_00000003</t>
+  </si>
+  <si>
+    <t>LM358DMR2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用运算放大器-LM358DMR2G-Vdd=0V~32V/Vee=±16V/Vos=7mV/GBP=1.0MHz/CMRR=70dB-2路-onsemi(安森美)-MSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C67504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\103-SOP.PcbLib</t>
+  </si>
+  <si>
+    <t>5.05mmx3.1mmx1.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA2320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS8552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_02_00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C157717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_02_00000002</t>
+  </si>
+  <si>
+    <t>C545235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA2320AIDGKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\OPA2320_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>-40℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器-OPA2320AIDGKR-Vdd=1.8V~5.5V/Vee=±0.9V~±2.75V/Vos=150uV/GBP=20MHz/CMRR=114dB-2路-TI(德州仪器)-VSSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gainsil(聚洵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS8552-MR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\GS8552_Gainsil_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>1.8MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器-GS8552-MR-轨到轨-Vdd=0V~7.5V/Vee=±3.75V/Vos=30uV/GBP=1.8MHz/CMRR=110dB-2路-Gainsil(聚洵)-MSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -761,6 +868,156 @@
         <v>39</v>
       </c>
     </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8935017-7812-4652-8BD5-8794774D0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBC0DD-DE55-473E-A28E-0A0898393B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,64 +248,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C545235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA2320AIDGKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\OPA2320_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>-40℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器-OPA2320AIDGKR-Vdd=1.8V~5.5V/Vee=±0.9V~±2.75V/Vos=150uV/GBP=20MHz/CMRR=114dB-2路-TI(德州仪器)-VSSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gainsil(聚洵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS8552-MR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\GS8552_Gainsil_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>1.8MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器-GS8552-MR-轨到轨-Vdd=0V~7.5V/Vee=±3.75V/Vos=30uV/GBP=1.8MHz/CMRR=110dB-2路-Gainsil(聚洵)-MSOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET输入运算放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF_04_02_00000002</t>
-  </si>
-  <si>
-    <t>C545235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA2320AIDGKR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI(德州仪器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSSOP-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\04_Operation_Amplifier\OPA2320_TI_DS_20250331.pdf</t>
-  </si>
-  <si>
-    <t>-40℃~+125℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精密运算放大器-OPA2320AIDGKR-Vdd=1.8V~5.5V/Vee=±0.9V~±2.75V/Vos=150uV/GBP=20MHz/CMRR=114dB-2路-TI(德州仪器)-VSSOP-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gainsil(聚洵)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS8552-MR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\04_Operation_Amplifier\GS8552_Gainsil_DS_20250331.pdf</t>
-  </si>
-  <si>
-    <t>1.8MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精密运算放大器-GS8552-MR-轨到轨-Vdd=0V~7.5V/Vee=±3.75V/Vos=30uV/GBP=1.8MHz/CMRR=110dB-2路-Gainsil(聚洵)-MSOP-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_03_00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL082CDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL082CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\TL082_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>FET输入运算放大器-TL082CDR-Vdd=10V~30V/Vee=±5V~±15V/Vos=13mV/GBP=3MHz/CMRR=100dB-2路-TI(德州仪器)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\NE5532_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>NE5532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_01_00000004</t>
+  </si>
+  <si>
+    <t>通用运算放大器-NE5532DR-Vdd=Vdd=10V~30V/Vee=±5V~±15V/Vos=5mV/GBP=10MHz/CMRR=100dB-2路-TI(德州仪器)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_04_00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM393DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\LM393_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>C67470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器-LM393DR-Vdd=2.0V~30V/Vos=9mV/响应时间=1.3usec-2路-TI(德州仪器)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMV358IDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_04_01_00000005</t>
+  </si>
+  <si>
+    <t>LMV358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\LMV358_TI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>通用运算放大器-LMV358IDR-Vdd=Vdd=2.7V~5.5V/Vos=7mV/GBP=1.0MHz/CMRR=63dB-2路-TI(德州仪器)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C63813</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -920,102 +1031,299 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="S8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>67</v>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBC0DD-DE55-473E-A28E-0A0898393B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C888002-E1AA-4D9A-880C-794A4D54B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.2mmx5.0mmx1.75mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0℃~+70℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +220,6 @@
     <t>G:\Library\AD_Library\PCB\103-SOP.PcbLib</t>
   </si>
   <si>
-    <t>5.05mmx3.1mmx1.1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPA2320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +410,12 @@
   <si>
     <t>C63813</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2mm*5.0mm*1.75mm</t>
+  </si>
+  <si>
+    <t>5.05mm*3.1mm*1.1mm</t>
   </si>
 </sst>
 </file>
@@ -793,8 +791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -896,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>22</v>
@@ -914,16 +913,16 @@
         <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>30</v>
@@ -931,25 +930,25 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -961,42 +960,42 @@
         <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
@@ -1005,25 +1004,25 @@
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>30</v>
@@ -1031,25 +1030,25 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>26</v>
@@ -1061,45 +1060,45 @@
         <v>29</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
@@ -1111,145 +1110,145 @@
         <v>29</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>26</v>
@@ -1261,45 +1260,45 @@
         <v>29</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
@@ -1311,19 +1310,19 @@
         <v>29</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C888002-E1AA-4D9A-880C-794A4D54B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52953BA7-EFC2-46B3-A9E8-85F9A2A8E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_01_00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM358</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,9 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_01_00000002</t>
-  </si>
-  <si>
     <t>TJM4558CDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,9 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_01_00000003</t>
-  </si>
-  <si>
     <t>LM358DMR2G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_02_00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精密运算放大器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,14 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_02_00000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF_04_03_00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TL082CDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,9 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_01_00000004</t>
-  </si>
-  <si>
     <t>通用运算放大器-NE5532DR-Vdd=Vdd=10V~30V/Vee=±5V~±15V/Vos=5mV/GBP=10MHz/CMRR=100dB-2路-TI(德州仪器)-SOIC-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_04_00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比较器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,9 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF_04_01_00000005</t>
-  </si>
-  <si>
     <t>LMV358</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +384,33 @@
   </si>
   <si>
     <t>5.05mm*3.1mm*1.1mm</t>
+  </si>
+  <si>
+    <t>SF040100000001</t>
+  </si>
+  <si>
+    <t>SF040100000002</t>
+  </si>
+  <si>
+    <t>SF040100000003</t>
+  </si>
+  <si>
+    <t>SF040100000004</t>
+  </si>
+  <si>
+    <t>SF040100000005</t>
+  </si>
+  <si>
+    <t>SF040200000001</t>
+  </si>
+  <si>
+    <t>SF040200000002</t>
+  </si>
+  <si>
+    <t>SF040300000001</t>
+  </si>
+  <si>
+    <t>SF040400000001</t>
   </si>
 </sst>
 </file>
@@ -791,9 +786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -880,449 +875,449 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="S3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="P8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="S9" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52953BA7-EFC2-46B3-A9E8-85F9A2A8E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988D51D-7F37-41F2-918C-0245BAA49460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,25 +392,28 @@
     <t>SF040100000002</t>
   </si>
   <si>
+    <t>SF040100000004</t>
+  </si>
+  <si>
+    <t>SF040100000005</t>
+  </si>
+  <si>
+    <t>SF040300000001</t>
+  </si>
+  <si>
+    <t>SF040400000001</t>
+  </si>
+  <si>
+    <t>SF040200000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF040200000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF040100000003</t>
-  </si>
-  <si>
-    <t>SF040100000004</t>
-  </si>
-  <si>
-    <t>SF040100000005</t>
-  </si>
-  <si>
-    <t>SF040200000001</t>
-  </si>
-  <si>
-    <t>SF040200000002</t>
-  </si>
-  <si>
-    <t>SF040300000001</t>
-  </si>
-  <si>
-    <t>SF040400000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -975,7 +978,7 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>44</v>
@@ -1025,7 +1028,7 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>77</v>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>90</v>
@@ -1125,7 +1128,7 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>51</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>50</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>84</v>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988D51D-7F37-41F2-918C-0245BAA49460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBBF3AC-5BAE-47B1-B2E9-D41BAF0C10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -791,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1324,6 +1327,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBBF3AC-5BAE-47B1-B2E9-D41BAF0C10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A412B-531E-4C65-B93D-0D8F1ABB08C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,9 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -808,8 +808,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A412B-531E-4C65-B93D-0D8F1ABB08C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570352E0-A331-47D9-B3FF-CA5A993858CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,9 +798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -802,7 +808,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -829,7 +835,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -894,7 +900,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -944,7 +950,7 @@
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -994,7 +1000,7 @@
       <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1044,7 +1050,7 @@
       <c r="E5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1094,7 +1100,7 @@
       <c r="E6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1144,7 +1150,7 @@
       <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1194,7 +1200,7 @@
       <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1244,7 +1250,7 @@
       <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1294,7 +1300,7 @@
       <c r="E10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="4" t="s">

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570352E0-A331-47D9-B3FF-CA5A993858CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B0ED4-AC26-4B49-95F6-1DB1CE9986E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,41 @@
   </si>
   <si>
     <t>SF040100000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF040200000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C130012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA4377AIPWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA4377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\OPA4377_TI_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>6.6mm*5.1mm*1.2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密运算放大器-OPA4377AIPWR-Vdd=2.2V~5.5V/Vee=±1.1V~±2.75V/Vos=250uV/GBP=5.5MHz/CMRR=90dB-4路-TI(德州仪器)-TSSOP-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1236,49 +1271,49 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>53</v>
@@ -1286,25 +1321,25 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
@@ -1316,18 +1351,68 @@
         <v>28</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>91</v>
       </c>
       <c r="T10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B0ED4-AC26-4B49-95F6-1DB1CE9986E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80570DA-9AAD-4D06-9C6D-5DE7B95533FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,40 @@
   </si>
   <si>
     <t>TSSOP-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF040100000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS321A-TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C431318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\04_Operation_Amplifier\GS321_Gainsil_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>3.02mm*2.95mm*1.25mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用运算放大器-GS321A-TR-轨到轨-Vdd=0V~7.5V/Vee=±3.75V/Vos=8mV/GBP=1.0MHz/CMRR=70dB-1路-Gainsil(聚洵)-SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS321A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,11 +865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1171,199 +1205,199 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>92</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>53</v>
@@ -1371,25 +1405,25 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>25</v>
@@ -1401,18 +1435,68 @@
         <v>28</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="T11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/AD_Library/Excel/04_Operation_Amplifier.xlsx
+++ b/AD_Library/Excel/04_Operation_Amplifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80570DA-9AAD-4D06-9C6D-5DE7B95533FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C466F60-8747-4572-B7DD-639EB98CBB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,40 +389,6 @@
     <t>5.05mm*3.1mm*1.1mm</t>
   </si>
   <si>
-    <t>SF040100000001</t>
-  </si>
-  <si>
-    <t>SF040100000002</t>
-  </si>
-  <si>
-    <t>SF040100000004</t>
-  </si>
-  <si>
-    <t>SF040100000005</t>
-  </si>
-  <si>
-    <t>SF040300000001</t>
-  </si>
-  <si>
-    <t>SF040400000001</t>
-  </si>
-  <si>
-    <t>SF040200000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF040200000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF040100000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF040200000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C130012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF040100000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GS321A-TR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +448,39 @@
   <si>
     <t>GS321A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF04010001</t>
+  </si>
+  <si>
+    <t>SF04010002</t>
+  </si>
+  <si>
+    <t>SF04010003</t>
+  </si>
+  <si>
+    <t>SF04010004</t>
+  </si>
+  <si>
+    <t>SF04010005</t>
+  </si>
+  <si>
+    <t>SF04010006</t>
+  </si>
+  <si>
+    <t>SF04020001</t>
+  </si>
+  <si>
+    <t>SF04020002</t>
+  </si>
+  <si>
+    <t>SF04020003</t>
+  </si>
+  <si>
+    <t>SF04030001</t>
+  </si>
+  <si>
+    <t>SF04040001</t>
   </si>
 </sst>
 </file>
@@ -869,26 +864,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -953,9 +948,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -1003,9 +998,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -1053,9 +1048,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>44</v>
@@ -1103,9 +1098,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>77</v>
@@ -1153,9 +1148,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>90</v>
@@ -1203,39 +1198,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>65</v>
@@ -1247,15 +1242,15 @@
         <v>41</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>51</v>
@@ -1303,9 +1298,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>50</v>
@@ -1353,59 +1348,59 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -1453,9 +1448,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>84</v>
